--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1819399.074783778</v>
+        <v>-1822311.692665523</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="G5" t="n">
-        <v>25.70792882276601</v>
+        <v>32.58397456447743</v>
       </c>
       <c r="H5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.58397456447745</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>32.58397456447743</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="S6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4049313189935</v>
+        <v>32.58397456447743</v>
       </c>
       <c r="J7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.17265651123943</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>177.6011929913541</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>135.0049476267309</v>
+        <v>152.6749814437698</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.55013741834227</v>
+        <v>14.55013741834239</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>159.9311591743142</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.6011929913541</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="W8" t="n">
-        <v>177.6011929913541</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.59550141142847</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>37.77135094767893</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.3872433227369</v>
       </c>
     </row>
     <row r="10">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>50.35017462972014</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0246778657678</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>126.3911536743325</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.247470077359736</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>98.71639747388627</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873202</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292575</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881757</v>
+        <v>109.1877617881756</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>41.56030045993359</v>
+        <v>250.9951719589018</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>285.3523007195965</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143206</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983789</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004713</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2120483577851</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>71.56229046896422</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2118382056127</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>152.5556394514472</v>
       </c>
       <c r="G14" t="n">
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>136.8421891979263</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9345864167828</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>260.3224394401282</v>
+        <v>28.27507077359491</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684687</v>
       </c>
       <c r="E17" t="n">
         <v>350.3201677200478</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2053,7 +2053,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2068,7 +2068,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894972</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247498</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2296,10 +2296,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295187</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707147</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943535</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295159</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612649</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716188</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998806</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452955</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295189</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038374</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707145</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453023</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247478</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3952,13 +3952,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947538</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="C5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="D5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="E5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="F5" t="n">
-        <v>103.6616661867928</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="G5" t="n">
-        <v>77.69406131531196</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H5" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L5" t="n">
-        <v>35.4455562212067</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="M5" t="n">
-        <v>52.6403087830941</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="N5" t="n">
-        <v>74.72709879682611</v>
+        <v>74.72709879682606</v>
       </c>
       <c r="O5" t="n">
-        <v>111.3507759299241</v>
+        <v>111.350775929924</v>
       </c>
       <c r="P5" t="n">
-        <v>111.3507759299241</v>
+        <v>111.350775929924</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R5" t="n">
         <v>110.6071669359962</v>
@@ -4610,7 +4610,7 @@
         <v>110.6071669359962</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.3267751882862</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="C6" t="n">
-        <v>40.3267751882862</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="D6" t="n">
-        <v>40.3267751882862</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="E6" t="n">
-        <v>40.3267751882862</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="F6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="G6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H6" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L6" t="n">
-        <v>28.04275820728451</v>
+        <v>28.04275820728447</v>
       </c>
       <c r="M6" t="n">
-        <v>64.66643534038245</v>
+        <v>64.66643534038239</v>
       </c>
       <c r="N6" t="n">
-        <v>101.2901124734804</v>
+        <v>101.2901124734803</v>
       </c>
       <c r="O6" t="n">
-        <v>137.9137896065784</v>
+        <v>137.9137896065783</v>
       </c>
       <c r="P6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R6" t="n">
         <v>110.6071669359962</v>
       </c>
       <c r="S6" t="n">
-        <v>73.2398808089705</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="T6" t="n">
-        <v>73.2398808089705</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="U6" t="n">
-        <v>73.2398808089705</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="V6" t="n">
-        <v>73.2398808089705</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="W6" t="n">
-        <v>73.2398808089705</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="X6" t="n">
-        <v>73.2398808089705</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="Y6" t="n">
-        <v>73.2398808089705</v>
+        <v>73.23988080897044</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="C7" t="n">
-        <v>114.4667192132852</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="D7" t="n">
-        <v>114.4667192132852</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="E7" t="n">
-        <v>114.4667192132852</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="F7" t="n">
-        <v>114.4667192132852</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="G7" t="n">
-        <v>114.4667192132852</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="H7" t="n">
-        <v>77.09943308625944</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="I7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K7" t="n">
-        <v>39.58316619435838</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L7" t="n">
-        <v>74.72709879682611</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="M7" t="n">
-        <v>74.72709879682611</v>
+        <v>76.20684332745626</v>
       </c>
       <c r="N7" t="n">
-        <v>74.72709879682611</v>
+        <v>112.8305204605542</v>
       </c>
       <c r="O7" t="n">
-        <v>111.3507759299241</v>
+        <v>112.8305204605542</v>
       </c>
       <c r="P7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="T7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="U7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="V7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="W7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="X7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Y7" t="n">
-        <v>114.4667192132852</v>
+        <v>147.9744530630219</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.9173745906178</v>
+        <v>175.3707491620167</v>
       </c>
       <c r="C8" t="n">
-        <v>336.9173745906178</v>
+        <v>175.3707491620167</v>
       </c>
       <c r="D8" t="n">
-        <v>157.5222301549067</v>
+        <v>175.3707491620167</v>
       </c>
       <c r="E8" t="n">
-        <v>157.5222301549067</v>
+        <v>175.3707491620167</v>
       </c>
       <c r="F8" t="n">
-        <v>150.5767294057032</v>
+        <v>168.4252484128132</v>
       </c>
       <c r="G8" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="H8" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="I8" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="J8" t="n">
-        <v>34.50717816588459</v>
+        <v>15.97961917232206</v>
       </c>
       <c r="K8" t="n">
-        <v>87.90075126749547</v>
+        <v>69.37319227393272</v>
       </c>
       <c r="L8" t="n">
-        <v>191.0419619406815</v>
+        <v>191.0419619406813</v>
       </c>
       <c r="M8" t="n">
-        <v>337.4758694424045</v>
+        <v>337.475869442404</v>
       </c>
       <c r="N8" t="n">
-        <v>490.8930390382752</v>
+        <v>490.8930390382743</v>
       </c>
       <c r="O8" t="n">
-        <v>622.425260641462</v>
+        <v>622.4252606414609</v>
       </c>
       <c r="P8" t="n">
-        <v>700.1839678153299</v>
+        <v>700.1839678153284</v>
       </c>
       <c r="Q8" t="n">
-        <v>710.4047719654162</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="R8" t="n">
-        <v>695.7076634620402</v>
+        <v>695.7076634620385</v>
       </c>
       <c r="S8" t="n">
-        <v>695.7076634620402</v>
+        <v>534.1610380334382</v>
       </c>
       <c r="T8" t="n">
-        <v>695.7076634620402</v>
+        <v>534.1610380334382</v>
       </c>
       <c r="U8" t="n">
-        <v>695.7076634620402</v>
+        <v>534.1610380334382</v>
       </c>
       <c r="V8" t="n">
-        <v>516.312519026329</v>
+        <v>354.7658935977274</v>
       </c>
       <c r="W8" t="n">
-        <v>336.9173745906178</v>
+        <v>354.7658935977274</v>
       </c>
       <c r="X8" t="n">
-        <v>336.9173745906178</v>
+        <v>175.3707491620167</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.9173745906178</v>
+        <v>175.3707491620167</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>643.3675473602572</v>
+        <v>173.4455504447638</v>
       </c>
       <c r="C9" t="n">
-        <v>468.9145180791301</v>
+        <v>173.4455504447638</v>
       </c>
       <c r="D9" t="n">
-        <v>319.9801084178789</v>
+        <v>173.4455504447638</v>
       </c>
       <c r="E9" t="n">
-        <v>160.7426534124234</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="F9" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="G9" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="H9" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="I9" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="J9" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="K9" t="n">
-        <v>62.00356905248668</v>
+        <v>62.00356905248623</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5930228083521</v>
+        <v>172.5930228083515</v>
       </c>
       <c r="M9" t="n">
-        <v>321.0025673461649</v>
+        <v>321.0025673461641</v>
       </c>
       <c r="N9" t="n">
-        <v>487.7487158372588</v>
+        <v>487.7487158372576</v>
       </c>
       <c r="O9" t="n">
-        <v>618.0690700035871</v>
+        <v>618.0690700035857</v>
       </c>
       <c r="P9" t="n">
-        <v>703.3295772241613</v>
+        <v>703.3295772241598</v>
       </c>
       <c r="Q9" t="n">
-        <v>710.4047719654162</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="R9" t="n">
-        <v>681.5204271053874</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="S9" t="n">
-        <v>681.5204271053874</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="T9" t="n">
-        <v>681.5204271053874</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="U9" t="n">
-        <v>643.3675473602572</v>
+        <v>531.0096275297038</v>
       </c>
       <c r="V9" t="n">
-        <v>643.3675473602572</v>
+        <v>531.0096275297038</v>
       </c>
       <c r="W9" t="n">
-        <v>643.3675473602572</v>
+        <v>531.0096275297038</v>
       </c>
       <c r="X9" t="n">
-        <v>643.3675473602572</v>
+        <v>351.614483093993</v>
       </c>
       <c r="Y9" t="n">
-        <v>643.3675473602572</v>
+        <v>173.4455504447638</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>605.390764337895</v>
+        <v>531.0096275297038</v>
       </c>
       <c r="C10" t="n">
-        <v>605.390764337895</v>
+        <v>362.073444601797</v>
       </c>
       <c r="D10" t="n">
-        <v>605.390764337895</v>
+        <v>211.9568051894612</v>
       </c>
       <c r="E10" t="n">
-        <v>457.4776707555019</v>
+        <v>161.0980429372187</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5877232575915</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="G10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="H10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="I10" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="J10" t="n">
-        <v>14.20809543930832</v>
+        <v>14.20809543930829</v>
       </c>
       <c r="K10" t="n">
-        <v>103.3052962210032</v>
+        <v>103.3052962210031</v>
       </c>
       <c r="L10" t="n">
-        <v>272.8454727319339</v>
+        <v>272.8454727319337</v>
       </c>
       <c r="M10" t="n">
-        <v>285.2663763700432</v>
+        <v>421.5727417028804</v>
       </c>
       <c r="N10" t="n">
-        <v>437.8421456541855</v>
+        <v>597.3979227643205</v>
       </c>
       <c r="O10" t="n">
-        <v>597.3979227643219</v>
+        <v>597.3979227643205</v>
       </c>
       <c r="P10" t="n">
-        <v>710.4047719654162</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="Q10" t="n">
-        <v>705.1042971398003</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="R10" t="n">
-        <v>705.1042971398003</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="S10" t="n">
-        <v>705.1042971398003</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="T10" t="n">
-        <v>705.1042971398003</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="U10" t="n">
-        <v>705.1042971398003</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="V10" t="n">
-        <v>705.1042971398003</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="W10" t="n">
-        <v>605.390764337895</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="X10" t="n">
-        <v>605.390764337895</v>
+        <v>710.4047719654146</v>
       </c>
       <c r="Y10" t="n">
-        <v>605.390764337895</v>
+        <v>710.4047719654146</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1133.32083113111</v>
+        <v>1934.181533884356</v>
       </c>
       <c r="C11" t="n">
-        <v>764.3583141906978</v>
+        <v>1565.219016943945</v>
       </c>
       <c r="D11" t="n">
-        <v>406.0926155839473</v>
+        <v>1206.953318337194</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839473</v>
+        <v>821.1650657389503</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839473</v>
+        <v>821.1650657389503</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839473</v>
+        <v>406.092615583947</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927145</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5069,22 +5069,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2967.357304045808</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2636.294416702237</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W11" t="n">
-        <v>2283.525761432123</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="X11" t="n">
-        <v>1910.060003171043</v>
+        <v>2320.781373948478</v>
       </c>
       <c r="Y11" t="n">
-        <v>1519.920671195231</v>
+        <v>2320.781373948478</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.4482993600903</v>
+        <v>777.0208963186151</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>608.0847133907083</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783728</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959799</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959799</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959799</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138378</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791192</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279958</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764921</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760413</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.07675150232</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088503</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846031</v>
       </c>
       <c r="S13" t="n">
-        <v>1739.201569949316</v>
+        <v>1837.464090846031</v>
       </c>
       <c r="T13" t="n">
-        <v>1517.434954518842</v>
+        <v>1765.178948958188</v>
       </c>
       <c r="U13" t="n">
-        <v>1228.332087644485</v>
+        <v>1476.076082083832</v>
       </c>
       <c r="V13" t="n">
-        <v>973.6475994385985</v>
+        <v>1476.076082083832</v>
       </c>
       <c r="W13" t="n">
-        <v>684.2304294016378</v>
+        <v>1186.658912046872</v>
       </c>
       <c r="X13" t="n">
-        <v>456.2408785036205</v>
+        <v>958.6693611488546</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.4482993600903</v>
+        <v>958.6693611488546</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2023.290263098982</v>
+        <v>2068.655758475508</v>
       </c>
       <c r="C14" t="n">
-        <v>1654.327746158571</v>
+        <v>1699.693241535097</v>
       </c>
       <c r="D14" t="n">
-        <v>1296.06204755182</v>
+        <v>1341.427542928346</v>
       </c>
       <c r="E14" t="n">
-        <v>910.273794953576</v>
+        <v>955.6392903301019</v>
       </c>
       <c r="F14" t="n">
-        <v>499.2878901639685</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>84.98040897511622</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511622</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511622</v>
@@ -5303,25 +5303,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755811</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>4110.796015222552</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="U14" t="n">
-        <v>3857.326736013681</v>
+        <v>3902.692231390207</v>
       </c>
       <c r="V14" t="n">
-        <v>3526.26384867011</v>
+        <v>3571.629344046636</v>
       </c>
       <c r="W14" t="n">
-        <v>3173.495193399996</v>
+        <v>3218.860688776522</v>
       </c>
       <c r="X14" t="n">
-        <v>2800.029435138916</v>
+        <v>2845.394930515442</v>
       </c>
       <c r="Y14" t="n">
-        <v>2409.890103163104</v>
+        <v>2455.25559853963</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>538.7790385694436</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.697503179733</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N15" t="n">
         <v>1453.289737812102</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.368901028491</v>
+        <v>777.3160786882479</v>
       </c>
       <c r="C16" t="n">
-        <v>927.4327181005837</v>
+        <v>777.3160786882479</v>
       </c>
       <c r="D16" t="n">
         <v>777.3160786882479</v>
@@ -5458,28 +5458,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2279.168624967671</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2279.168624967671</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>2279.168624967671</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>2016.216665937238</v>
+        <v>1770.199866972643</v>
       </c>
       <c r="V16" t="n">
-        <v>2016.216665937238</v>
+        <v>1515.515378766756</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.799495900278</v>
+        <v>1226.098208729795</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.80994500226</v>
+        <v>998.108657831778</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.01736585873</v>
+        <v>777.3160786882479</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5540,7 +5540,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>1840.391293364258</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P18" t="n">
         <v>2346.796248312508</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L19" t="n">
         <v>857.3827676902783</v>
@@ -5701,22 +5701,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,25 +5750,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5780,22 +5780,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1471.383887449136</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375538</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
         <v>735.8557341477718</v>
@@ -5908,16 +5908,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G23" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5987,25 +5987,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767228</v>
@@ -6017,22 +6017,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>147.5315942576216</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249806</v>
+        <v>450.5726436074859</v>
       </c>
       <c r="L24" t="n">
-        <v>841.820087919308</v>
+        <v>904.3712732018133</v>
       </c>
       <c r="M24" t="n">
-        <v>1390.738552529597</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N24" t="n">
-        <v>1968.593900456</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O24" t="n">
-        <v>2474.99885540425</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502079</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477696</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609024</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039778</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
@@ -6148,10 +6148,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6166,31 +6166,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254979</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,10 +6224,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,7 +6239,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612703</v>
@@ -6257,16 +6257,16 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6303,25 +6303,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>147.5315942576216</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249806</v>
+        <v>450.5726436074859</v>
       </c>
       <c r="L27" t="n">
-        <v>841.820087919308</v>
+        <v>904.3712732018133</v>
       </c>
       <c r="M27" t="n">
-        <v>1390.738552529597</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N27" t="n">
-        <v>1968.593900456</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
-        <v>1968.593900456</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P27" t="n">
-        <v>2355.695456008155</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609033</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746738</v>
@@ -6485,16 +6485,16 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V29" t="n">
         <v>3496.718237382058</v>
@@ -6503,10 +6503,10 @@
         <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q30" t="n">
         <v>2530.879212293269</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127671</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6698,10 +6698,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6713,25 +6713,25 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
         <v>3496.71823738206</v>
@@ -6777,25 +6777,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897925</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443611</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796659</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162822</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511447</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951443</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746738</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502079</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477695</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609023</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039777</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.174278704278</v>
       </c>
       <c r="K37" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7117,28 +7117,28 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254979</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7251,22 +7251,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2171.957806054385</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
@@ -7345,7 +7345,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
@@ -7360,7 +7360,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
@@ -7400,10 +7400,10 @@
         <v>725.1782574796655</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511619</v>
@@ -7415,13 +7415,13 @@
         <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233286</v>
@@ -7488,28 +7488,28 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7567,13 +7567,13 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7600,16 +7600,16 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796654</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162817</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076824</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951436</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7737,16 +7737,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J46" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443617</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7834,19 +7834,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K2" t="n">
         <v>86.72591490550931</v>
@@ -7985,7 +7985,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N2" t="n">
         <v>42.33948647951536</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K3" t="n">
         <v>47.25897875440141</v>
@@ -8149,10 +8149,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O4" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>61.31059319219423</v>
+        <v>61.31059319219425</v>
       </c>
       <c r="K5" t="n">
-        <v>40.63765753208767</v>
+        <v>40.6376575320877</v>
       </c>
       <c r="L5" t="n">
-        <v>45.95430992130085</v>
+        <v>13.14010066882992</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>19.62517633455613</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>13.1890329179149</v>
       </c>
       <c r="O5" t="n">
-        <v>29.39697866485699</v>
+        <v>29.39697866485702</v>
       </c>
       <c r="P5" t="n">
-        <v>28.36594393961249</v>
+        <v>28.36594393961252</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.9545958323197</v>
+        <v>106.9545958323198</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.5240955048436</v>
+        <v>55.52409550484361</v>
       </c>
       <c r="K6" t="n">
-        <v>15.95525556667873</v>
+        <v>15.95525556667874</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.63021144112578</v>
+        <v>43.63021144112579</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>92.48560745376845</v>
+        <v>55.49199418801295</v>
       </c>
       <c r="L7" t="n">
-        <v>76.3016926895362</v>
+        <v>77.79638413461721</v>
       </c>
       <c r="M7" t="n">
-        <v>39.72960594677293</v>
+        <v>76.72321921252843</v>
       </c>
       <c r="N7" t="n">
-        <v>30.84802986290133</v>
+        <v>67.84164312865681</v>
       </c>
       <c r="O7" t="n">
-        <v>86.00503337641993</v>
+        <v>49.01142011066445</v>
       </c>
       <c r="P7" t="n">
-        <v>98.18586645234613</v>
+        <v>96.69117500726512</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.71470605410336</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>18.71470605410384</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.94216116945671</v>
+        <v>17.9421611694568</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8617,13 +8617,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>137.6831973058964</v>
       </c>
       <c r="N10" t="n">
-        <v>133.9320010772873</v>
+        <v>157.4162553977903</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>1.874214739482085</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.25430980652213</v>
+        <v>213.621193124755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5063572696783</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2617786911475</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>111.5291174296598</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.91797013962</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4348714989683</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>84.37879995887232</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.025808259028</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983286</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.556976973656759</v>
+        <v>189.7690253314417</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.9866588072048</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>254.3204062902642</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>63.76061580886</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>25.87086927335088</v>
+        <v>257.9182379398842</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.685851541173179e-12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-9.389674351018864e-13</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.941646926046815e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1265581.895232565</v>
+        <v>1265581.895232563</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1100339.876182131</v>
+        <v>1100339.876182132</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1322815.991258039</v>
+        <v>1322815.991258038</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1322815.991258038</v>
+        <v>1322815.991258039</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1322815.991258038</v>
+        <v>1322815.991258039</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1322815.991258039</v>
+        <v>1322815.991258038</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115963.2798289142</v>
+        <v>115963.2798289141</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>102299.1296912762</v>
@@ -26326,19 +26326,19 @@
         <v>115011.4772926965</v>
       </c>
       <c r="G2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="H2" t="n">
+        <v>123156.2654796426</v>
+      </c>
+      <c r="I2" t="n">
+        <v>123156.2654796426</v>
+      </c>
+      <c r="J2" t="n">
         <v>123156.2654796425</v>
       </c>
-      <c r="H2" t="n">
-        <v>123156.2654796425</v>
-      </c>
-      <c r="I2" t="n">
-        <v>123156.2654796427</v>
-      </c>
-      <c r="J2" t="n">
-        <v>123156.2654796427</v>
-      </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
@@ -26347,10 +26347,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26366,46 +26366,46 @@
         <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>94021.10390369296</v>
+        <v>94021.10390369289</v>
       </c>
       <c r="D3" t="n">
-        <v>202057.8637125775</v>
+        <v>202057.8637125771</v>
       </c>
       <c r="E3" t="n">
-        <v>640230.2398270897</v>
+        <v>640230.2398270904</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963078</v>
+        <v>215052.1096963077</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177114</v>
+        <v>25288.16188177115</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>1.620037437533028e-10</v>
       </c>
       <c r="K3" t="n">
-        <v>9520.972258980903</v>
+        <v>9520.972258980837</v>
       </c>
       <c r="L3" t="n">
-        <v>60874.67484210266</v>
+        <v>60874.67484210247</v>
       </c>
       <c r="M3" t="n">
-        <v>162929.6405938555</v>
+        <v>162929.6405938556</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.2935957864</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.383221938856877e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335706.4866022025</v>
+        <v>335706.4866022021</v>
       </c>
       <c r="C4" t="n">
         <v>337723.4195335117</v>
       </c>
       <c r="D4" t="n">
-        <v>277387.5389398808</v>
+        <v>277387.5389398809</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091601</v>
+        <v>9770.403102091794</v>
       </c>
       <c r="F4" t="n">
         <v>9889.878033789992</v>
       </c>
       <c r="G4" t="n">
+        <v>40959.76311601003</v>
+      </c>
+      <c r="H4" t="n">
         <v>40959.76311601002</v>
       </c>
-      <c r="H4" t="n">
-        <v>40959.76311601009</v>
-      </c>
       <c r="I4" t="n">
-        <v>40959.76311600996</v>
+        <v>40959.76311601004</v>
       </c>
       <c r="J4" t="n">
-        <v>40959.76311600997</v>
+        <v>40959.76311601005</v>
       </c>
       <c r="K4" t="n">
-        <v>40959.76311601004</v>
+        <v>40959.76311601022</v>
       </c>
       <c r="L4" t="n">
-        <v>40959.76311601006</v>
+        <v>40959.76311601007</v>
       </c>
       <c r="M4" t="n">
-        <v>40959.76311601001</v>
+        <v>40959.76311601013</v>
       </c>
       <c r="N4" t="n">
-        <v>40959.76311601004</v>
+        <v>40959.76311601003</v>
       </c>
       <c r="O4" t="n">
-        <v>40959.76311601013</v>
+        <v>40959.76311601014</v>
       </c>
       <c r="P4" t="n">
-        <v>40959.76311601001</v>
+        <v>40959.7631160101</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>39312.96135688073</v>
       </c>
       <c r="C5" t="n">
-        <v>43526.93507027925</v>
+        <v>43526.93507027924</v>
       </c>
       <c r="D5" t="n">
-        <v>56107.45912460609</v>
+        <v>56107.45912460605</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
         <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26497,19 +26497,19 @@
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510362.9623131009</v>
+        <v>-510482.8454072794</v>
       </c>
       <c r="C6" t="n">
-        <v>-352115.1930278415</v>
+        <v>-352115.1930278413</v>
       </c>
       <c r="D6" t="n">
-        <v>-412396.596297422</v>
+        <v>-412396.5962974216</v>
       </c>
       <c r="E6" t="n">
-        <v>-622007.8537992984</v>
+        <v>-622355.4727291053</v>
       </c>
       <c r="F6" t="n">
-        <v>-202379.5064380083</v>
+        <v>-202515.2529077906</v>
       </c>
       <c r="G6" t="n">
-        <v>-38198.09362029396</v>
+        <v>-38198.09362029399</v>
       </c>
       <c r="H6" t="n">
-        <v>-12909.93173852288</v>
+        <v>-12909.93173852269</v>
       </c>
       <c r="I6" t="n">
-        <v>-12909.93173852249</v>
+        <v>-12909.93173852268</v>
       </c>
       <c r="J6" t="n">
-        <v>-12909.93173852266</v>
+        <v>-12909.93173852295</v>
       </c>
       <c r="K6" t="n">
-        <v>-22430.90399750367</v>
+        <v>-22430.9039975037</v>
       </c>
       <c r="L6" t="n">
-        <v>-73784.60658062548</v>
+        <v>-73784.60658062535</v>
       </c>
       <c r="M6" t="n">
-        <v>-175839.5723323782</v>
+        <v>-175839.5723323785</v>
       </c>
       <c r="N6" t="n">
-        <v>-69452.22533430901</v>
+        <v>-69452.22533430922</v>
       </c>
       <c r="O6" t="n">
-        <v>-12909.93173852284</v>
+        <v>-12909.93173852304</v>
       </c>
       <c r="P6" t="n">
         <v>-12909.93173852285</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26701,31 +26701,31 @@
         <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221413</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221397</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221385</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221388</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221384</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>350.9230909963904</v>
       </c>
       <c r="D3" t="n">
-        <v>535.8581004922825</v>
+        <v>535.858100492282</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
-        <v>177.6011929913541</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26814,13 +26814,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26829,7 +26829,7 @@
         <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.815970093361102e-14</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G2" t="n">
         <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221373</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.592326932761353e-14</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>90.12669847892562</v>
+        <v>90.12669847892556</v>
       </c>
       <c r="D3" t="n">
-        <v>184.935009495892</v>
+        <v>184.9350094958916</v>
       </c>
       <c r="E3" t="n">
-        <v>553.9186001010158</v>
+        <v>553.9186001010163</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268245</v>
@@ -27012,46 +27012,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
+        <v>140.6075797255982</v>
+      </c>
+      <c r="E4" t="n">
+        <v>653.8002624109391</v>
+      </c>
+      <c r="F4" t="n">
+        <v>230.8536567866601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36.99361326575502</v>
+      </c>
+      <c r="L4" t="n">
         <v>140.6075797255986</v>
       </c>
-      <c r="E4" t="n">
-        <v>653.8002624109386</v>
-      </c>
-      <c r="F4" t="n">
-        <v>230.8536567866602</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36.99361326575527</v>
-      </c>
-      <c r="L4" t="n">
-        <v>140.6075797255988</v>
-      </c>
       <c r="M4" t="n">
-        <v>653.8002624109386</v>
+        <v>653.8002624109387</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866605</v>
       </c>
       <c r="O4" t="n">
         <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6075797255986</v>
+        <v>140.6075797255982</v>
       </c>
       <c r="M4" t="n">
-        <v>653.8002624109386</v>
+        <v>653.8002624109391</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>200.6331166817671</v>
       </c>
       <c r="H2" t="n">
         <v>328.737591844935</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S2" t="n">
         <v>185.1290231762283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>237.7118512877532</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27558,7 +27558,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R4" t="n">
         <v>156.1475068297698</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>369.882432475956</v>
       </c>
       <c r="G5" t="n">
-        <v>388.1840625979112</v>
+        <v>381.3080168561997</v>
       </c>
       <c r="H5" t="n">
-        <v>288.0333854101452</v>
+        <v>325.0269986759007</v>
       </c>
       <c r="I5" t="n">
-        <v>119.0944874980641</v>
+        <v>156.0881007638196</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.25772531940619</v>
+        <v>24.25772531940623</v>
       </c>
       <c r="S5" t="n">
         <v>176.8726929587871</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2443253902981</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.9492090853899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>120.6514671896455</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>112.4852378289064</v>
       </c>
       <c r="G6" t="n">
         <v>136.5887014580486</v>
@@ -27713,7 +27713,7 @@
         <v>104.9455136103262</v>
       </c>
       <c r="I6" t="n">
-        <v>26.41484728073821</v>
+        <v>63.40846054649371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>16.29943526287909</v>
+        <v>16.29943526287913</v>
       </c>
       <c r="S6" t="n">
-        <v>120.6691871742171</v>
+        <v>157.6628004399726</v>
       </c>
       <c r="T6" t="n">
-        <v>197.1222917077869</v>
+        <v>160.1286784420314</v>
       </c>
       <c r="U6" t="n">
         <v>225.8917231530036</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>130.2532078328724</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>119.6072841106272</v>
       </c>
       <c r="I7" t="n">
-        <v>100.0151569686572</v>
+        <v>103.8361137231733</v>
       </c>
       <c r="J7" t="n">
-        <v>11.62574916765616</v>
+        <v>11.6257491676562</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.17265651123944</v>
       </c>
       <c r="R7" t="n">
         <v>148.8398568186753</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>177.0818486293289</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>278.1435864693397</v>
+        <v>260.4735526523008</v>
       </c>
       <c r="H8" t="n">
-        <v>317.4130663502733</v>
+        <v>317.4130663502734</v>
       </c>
       <c r="I8" t="n">
-        <v>127.4259622569236</v>
+        <v>127.4259622569237</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.9311591743141</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.6658240971767</v>
@@ -27910,13 +27910,13 @@
         <v>251.1733166343113</v>
       </c>
       <c r="V8" t="n">
-        <v>150.1510654787809</v>
+        <v>150.1510654787812</v>
       </c>
       <c r="W8" t="n">
-        <v>171.639775726059</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>192.1299076871154</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.1909167206423</v>
@@ -27950,7 +27950,7 @@
         <v>101.1037504885341</v>
       </c>
       <c r="I9" t="n">
-        <v>49.71280182439227</v>
+        <v>49.7128018243923</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.59550141142854</v>
       </c>
       <c r="S9" t="n">
-        <v>150.2741234096414</v>
+        <v>150.2741234096415</v>
       </c>
       <c r="T9" t="n">
         <v>195.5189400688555</v>
       </c>
       <c r="U9" t="n">
-        <v>188.0942021568111</v>
+        <v>48.26436011313641</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>28.17179221212382</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.29545245456742</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>2.230787190583641</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>96.08378801684903</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0246778657678</v>
       </c>
       <c r="H10" t="n">
         <v>153.6358737815141</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126.3911536743326</v>
       </c>
       <c r="J10" t="n">
-        <v>25.04166458341901</v>
+        <v>25.04166458341906</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.247470077359807</v>
       </c>
       <c r="R10" t="n">
         <v>133.8449624421723</v>
       </c>
       <c r="S10" t="n">
-        <v>207.1765983870754</v>
+        <v>207.1765983870755</v>
       </c>
       <c r="T10" t="n">
         <v>223.8168466867836</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>187.8066008627047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>1.989519660128281e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>5.240607947598619e-12</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8.763834102865076e-12</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28582,7 +28582,7 @@
         <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221487</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.3803783660567</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221622</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221384</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221588</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
-        <v>12.3803783660569</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221602</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K2" t="n">
         <v>133.3639361394712</v>
@@ -31072,7 +31072,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R2" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S2" t="n">
         <v>23.89104641001701</v>
@@ -31081,7 +31081,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,7 +31121,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I3" t="n">
         <v>19.31369510624622</v>
@@ -31154,7 +31154,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S3" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T3" t="n">
         <v>2.261055516259907</v>
@@ -31206,7 +31206,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K4" t="n">
         <v>54.63898190775737</v>
@@ -31221,13 +31221,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R4" t="n">
         <v>21.14588454739968</v>
@@ -31285,13 +31285,13 @@
         <v>54.38778880658631</v>
       </c>
       <c r="J5" t="n">
-        <v>119.7353113344921</v>
+        <v>119.735311334492</v>
       </c>
       <c r="K5" t="n">
-        <v>179.4521935128929</v>
+        <v>179.4521935128928</v>
       </c>
       <c r="L5" t="n">
-        <v>222.6263143011574</v>
+        <v>222.6263143011573</v>
       </c>
       <c r="M5" t="n">
         <v>247.7146701584721</v>
@@ -31309,13 +31309,13 @@
         <v>152.3447073078852</v>
       </c>
       <c r="R5" t="n">
-        <v>88.61777935598799</v>
+        <v>88.61777935598798</v>
       </c>
       <c r="S5" t="n">
         <v>32.14737662745829</v>
       </c>
       <c r="T5" t="n">
-        <v>6.175541028489241</v>
+        <v>6.17554102848924</v>
       </c>
       <c r="U5" t="n">
         <v>0.112859687556628</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7548157051620474</v>
+        <v>0.7548157051620473</v>
       </c>
       <c r="H6" t="n">
-        <v>7.289930626170301</v>
+        <v>7.2899306261703</v>
       </c>
       <c r="I6" t="n">
         <v>25.98817230492137</v>
       </c>
       <c r="J6" t="n">
-        <v>71.31353116182309</v>
+        <v>71.31353116182308</v>
       </c>
       <c r="K6" t="n">
-        <v>121.8861834076803</v>
+        <v>121.8861834076802</v>
       </c>
       <c r="L6" t="n">
         <v>163.8910152809086</v>
@@ -31382,13 +31382,13 @@
         <v>179.5898577101999</v>
       </c>
       <c r="P6" t="n">
-        <v>144.1366937339703</v>
+        <v>144.1366937339702</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.35156264489574</v>
+        <v>96.35156264489572</v>
       </c>
       <c r="R6" t="n">
-        <v>46.86478562400854</v>
+        <v>46.86478562400853</v>
       </c>
       <c r="S6" t="n">
         <v>14.02037066386521</v>
@@ -31397,7 +31397,7 @@
         <v>3.042436987034742</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04965892797118735</v>
+        <v>0.04965892797118734</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,34 +31434,34 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6328121313049663</v>
+        <v>0.6328121313049662</v>
       </c>
       <c r="H7" t="n">
-        <v>5.626275131056886</v>
+        <v>5.626275131056885</v>
       </c>
       <c r="I7" t="n">
-        <v>19.03038663960754</v>
+        <v>19.03038663960753</v>
       </c>
       <c r="J7" t="n">
-        <v>44.73981768326112</v>
+        <v>44.73981768326111</v>
       </c>
       <c r="K7" t="n">
         <v>73.52126398252243</v>
       </c>
       <c r="L7" t="n">
-        <v>94.08190541237656</v>
+        <v>94.08190541237654</v>
       </c>
       <c r="M7" t="n">
-        <v>99.19617800083212</v>
+        <v>99.19617800083209</v>
       </c>
       <c r="N7" t="n">
-        <v>96.83751460233186</v>
+        <v>96.83751460233185</v>
       </c>
       <c r="O7" t="n">
-        <v>89.44511834117836</v>
+        <v>89.44511834117834</v>
       </c>
       <c r="P7" t="n">
-        <v>76.53575086255698</v>
+        <v>76.53575086255697</v>
       </c>
       <c r="Q7" t="n">
         <v>52.98938674045495</v>
@@ -31473,10 +31473,10 @@
         <v>11.02818959737836</v>
       </c>
       <c r="T7" t="n">
-        <v>2.703833651939401</v>
+        <v>2.7038336519394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03451702534390729</v>
+        <v>0.03451702534390728</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.154203419064451</v>
+        <v>2.154203419064449</v>
       </c>
       <c r="H8" t="n">
-        <v>22.06173576549381</v>
+        <v>22.06173576549379</v>
       </c>
       <c r="I8" t="n">
-        <v>83.04992731348231</v>
+        <v>83.04992731348224</v>
       </c>
       <c r="J8" t="n">
-        <v>182.8353224388216</v>
+        <v>182.8353224388214</v>
       </c>
       <c r="K8" t="n">
-        <v>274.0227531678198</v>
+        <v>274.0227531678196</v>
       </c>
       <c r="L8" t="n">
-        <v>339.9494560540136</v>
+        <v>339.9494560540133</v>
       </c>
       <c r="M8" t="n">
-        <v>378.2592711078009</v>
+        <v>378.2592711078007</v>
       </c>
       <c r="N8" t="n">
-        <v>384.3799015722179</v>
+        <v>384.3799015722175</v>
       </c>
       <c r="O8" t="n">
-        <v>362.9590413238957</v>
+        <v>362.9590413238954</v>
       </c>
       <c r="P8" t="n">
-        <v>309.777144415742</v>
+        <v>309.7771444157418</v>
       </c>
       <c r="Q8" t="n">
-        <v>232.6297344704963</v>
+        <v>232.6297344704961</v>
       </c>
       <c r="R8" t="n">
-        <v>135.3189805228074</v>
+        <v>135.3189805228073</v>
       </c>
       <c r="S8" t="n">
-        <v>49.08891041193122</v>
+        <v>49.08891041193117</v>
       </c>
       <c r="T8" t="n">
-        <v>9.430025466954637</v>
+        <v>9.430025466954628</v>
       </c>
       <c r="U8" t="n">
-        <v>0.172336273525156</v>
+        <v>0.1723362735251558</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152600442568306</v>
+        <v>1.152600442568305</v>
       </c>
       <c r="H9" t="n">
-        <v>11.13169374796232</v>
+        <v>11.13169374796231</v>
       </c>
       <c r="I9" t="n">
-        <v>39.68383102702281</v>
+        <v>39.68383102702278</v>
       </c>
       <c r="J9" t="n">
-        <v>108.89546549721</v>
+        <v>108.8954654972099</v>
       </c>
       <c r="K9" t="n">
-        <v>186.1196951492865</v>
+        <v>186.1196951492863</v>
       </c>
       <c r="L9" t="n">
-        <v>250.2608987251929</v>
+        <v>250.2608987251927</v>
       </c>
       <c r="M9" t="n">
-        <v>292.0426647682939</v>
+        <v>292.0426647682937</v>
       </c>
       <c r="N9" t="n">
-        <v>299.7721651046402</v>
+        <v>299.77216510464</v>
       </c>
       <c r="O9" t="n">
-        <v>274.232965824574</v>
+        <v>274.2329658245738</v>
       </c>
       <c r="P9" t="n">
-        <v>220.0961318795566</v>
+        <v>220.0961318795564</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.1284354408244</v>
+        <v>147.1284354408243</v>
       </c>
       <c r="R9" t="n">
-        <v>71.56233274121466</v>
+        <v>71.56233274121459</v>
       </c>
       <c r="S9" t="n">
-        <v>21.40904769419637</v>
+        <v>21.40904769419635</v>
       </c>
       <c r="T9" t="n">
-        <v>4.645788625966108</v>
+        <v>4.645788625966103</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07582897648475699</v>
+        <v>0.07582897648475692</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9663014926910011</v>
+        <v>0.9663014926910002</v>
       </c>
       <c r="H10" t="n">
-        <v>8.591298725925451</v>
+        <v>8.591298725925444</v>
       </c>
       <c r="I10" t="n">
-        <v>29.05932125292575</v>
+        <v>29.05932125292572</v>
       </c>
       <c r="J10" t="n">
-        <v>68.31751553325377</v>
+        <v>68.31751553325371</v>
       </c>
       <c r="K10" t="n">
-        <v>112.2666643326454</v>
+        <v>112.2666643326453</v>
       </c>
       <c r="L10" t="n">
-        <v>143.6626782860785</v>
+        <v>143.6626782860784</v>
       </c>
       <c r="M10" t="n">
-        <v>151.4721512588266</v>
+        <v>151.4721512588265</v>
       </c>
       <c r="N10" t="n">
-        <v>147.8704820587967</v>
+        <v>147.8704820587965</v>
       </c>
       <c r="O10" t="n">
-        <v>136.5823237123608</v>
+        <v>136.5823237123607</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8697732614643</v>
+        <v>116.8697732614642</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.91457317433465</v>
+        <v>80.91457317433458</v>
       </c>
       <c r="R10" t="n">
-        <v>43.44842893499718</v>
+        <v>43.44842893499715</v>
       </c>
       <c r="S10" t="n">
-        <v>16.8399996498968</v>
+        <v>16.83999964989679</v>
       </c>
       <c r="T10" t="n">
-        <v>4.128742741497913</v>
+        <v>4.128742741497909</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05270735414678194</v>
+        <v>0.05270735414678189</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>500.6267975705753</v>
+        <v>520.0010180109729</v>
       </c>
       <c r="O15" t="n">
         <v>654.1164009578283</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>500.6267975705753</v>
+        <v>452.6302361501935</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32558,22 +32558,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>645.1509001052084</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>530.1489483592454</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>190.0206421035408</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32798,16 +32798,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>215.4343416764904</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>190.0206421035408</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33035,16 +33035,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>341.9501925866608</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
@@ -33275,13 +33275,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>184.028899617985</v>
       </c>
       <c r="R30" t="n">
         <v>170.6946332877214</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,19 +33506,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>176.0878742921115</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33749,16 +33749,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,10 +33971,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
@@ -33986,10 +33986,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>521.5364117268584</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>382.529648770071</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>186.643369976408</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34366,10 +34366,10 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383694</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171643</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
         <v>810.867191086975</v>
@@ -34457,19 +34457,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>663.5877533333045</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>358.0756880380876</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>32.81420925247097</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>17.3684369311994</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N5" t="n">
-        <v>22.30988890275961</v>
+        <v>35.49892182067445</v>
       </c>
       <c r="O5" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.33663550103441</v>
+        <v>25.33663550103438</v>
       </c>
       <c r="M6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P6" t="n">
-        <v>10.16228631964003</v>
+        <v>10.16228631964</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>35.49892182067448</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>36.9936132657555</v>
+        <v>35.49892182067446</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>20.50412396623865</v>
+        <v>1.789417912135121</v>
       </c>
       <c r="K8" t="n">
-        <v>53.93290212283927</v>
+        <v>53.93290212283904</v>
       </c>
       <c r="L8" t="n">
-        <v>104.1830410840263</v>
+        <v>122.8977471381299</v>
       </c>
       <c r="M8" t="n">
-        <v>147.9130378805282</v>
+        <v>147.9130378805279</v>
       </c>
       <c r="N8" t="n">
-        <v>154.966837975627</v>
+        <v>154.9668379756266</v>
       </c>
       <c r="O8" t="n">
-        <v>132.860829902209</v>
+        <v>132.8608299022087</v>
       </c>
       <c r="P8" t="n">
-        <v>78.5441486604725</v>
+        <v>78.54414866047222</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.32404459604686</v>
+        <v>10.32404459604666</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.27825617492746</v>
+        <v>48.27825617492732</v>
       </c>
       <c r="L9" t="n">
-        <v>111.7065189453187</v>
+        <v>111.7065189453185</v>
       </c>
       <c r="M9" t="n">
-        <v>149.9086308462756</v>
+        <v>149.9086308462753</v>
       </c>
       <c r="N9" t="n">
-        <v>168.4304530213069</v>
+        <v>168.4304530213066</v>
       </c>
       <c r="O9" t="n">
-        <v>131.6367213801296</v>
+        <v>131.6367213801294</v>
       </c>
       <c r="P9" t="n">
-        <v>86.12172446522632</v>
+        <v>86.12172446522615</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.146661354802916</v>
+        <v>7.146661354802802</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>89.99717250676252</v>
+        <v>89.99717250676242</v>
       </c>
       <c r="L10" t="n">
-        <v>171.2527035463946</v>
+        <v>171.2527035463945</v>
       </c>
       <c r="M10" t="n">
-        <v>12.54636731122156</v>
+        <v>150.2295646171179</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1169386708507</v>
+        <v>177.6011929913537</v>
       </c>
       <c r="O10" t="n">
-        <v>161.1674516264005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>114.1483325263578</v>
+        <v>114.1483325263577</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306642</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443198</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853790242</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>369.285085487242</v>
+        <v>388.6593059276396</v>
       </c>
       <c r="O15" t="n">
         <v>511.5201565133839</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>369.285085487242</v>
+        <v>321.2885240668602</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116848</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
         <v>433.5251384721831</v>
@@ -36206,22 +36206,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>503.01686618319</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>387.552703914801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36364,7 +36364,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381577</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>63.1830154368741</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36446,16 +36446,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817348</v>
@@ -36528,13 +36528,13 @@
         <v>428.4516387010906</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>63.1830154368741</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36683,16 +36683,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>201.9684185006393</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817348</v>
@@ -36762,16 +36762,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,13 +36923,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="R30" t="n">
         <v>25.01512932375741</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,19 +37154,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>33.95384037009313</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
@@ -37634,10 +37634,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>387.5620043125282</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37710,13 +37710,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553057</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>243.9752689901969</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>44.04712553196353</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116831</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169878</v>
@@ -38105,19 +38105,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>532.2460412499712</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>224.1012806237574</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,19 +38178,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
